--- a/docs/טבלת השוואה(comb3) עבור אלגוריתם 1.xlsx
+++ b/docs/טבלת השוואה(comb3) עבור אלגוריתם 1.xlsx
@@ -314,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,9 +346,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +657,7 @@
   <dimension ref="A1:O416"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,6 +704,10 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(H3:H416)</f>
+        <v>1.7717126450550002E-5</v>
+      </c>
       <c r="L2" t="s">
         <v>38</v>
       </c>
